--- a/PREPARE-TIMES-NZ/output/SuppXLS/Scen_LoadCurve_COM-FR.xlsx
+++ b/PREPARE-TIMES-NZ/output/SuppXLS/Scen_LoadCurve_COM-FR.xlsx
@@ -470,7 +470,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SUM-</t>
+          <t>SUM-WK-D</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,12 +480,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.791186483366308</t>
+          <t>0.140947365767566</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.791186483366308</t>
+          <t>0.140947365767566</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ADCF-IRG,ALIVE-IRG,AHORT-IRG</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -507,7 +507,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FAL-</t>
+          <t>SUM-WK-N</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -517,12 +517,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.208121694363726</t>
+          <t>0.0652719557128457</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.208121694363726</t>
+          <t>0.0652719557128457</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ADCF-IRG,ALIVE-IRG,AHORT-IRG</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WIN-</t>
+          <t>SUM-WK-P</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -554,12 +554,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.000303430820160661</t>
+          <t>0.0148057810193078</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.000303430820160661</t>
+          <t>0.0148057810193078</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ADCF-IRG,ALIVE-IRG,AHORT-IRG</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -581,7 +581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SPR-</t>
+          <t>SUM-WE-D</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.000388391449805647</t>
+          <t>0.0581310381820033</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.000388391449805647</t>
+          <t>0.0581310381820033</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -606,10 +606,47 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ADCF-IRG,ALIVE-IRG,AHORT-IRG</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SUM-WE-N</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>COM_FR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.024106619492385</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.024106619492385</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -618,51 +655,81 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>~TFM_INS</t>
+          <t>SUM-WE-P</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>COM_FR</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.00537331787660849</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00537331787660849</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TimeSlice</t>
+          <t>FAL-WK-D</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Attribute</t>
+          <t>COM_FR</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t>0.111283792041318</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>0.111283792041318</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cset_Set</t>
+          <t>DEM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cset_CN</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SUM-WK-D</t>
+          <t>FAL-WK-N</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -672,12 +739,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.0913840203982165</t>
+          <t>0.060130297254772</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0913840203982165</t>
+          <t>0.060130297254772</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,7 +754,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -699,7 +766,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SUM-WK-N</t>
+          <t>FAL-WK-P</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -709,12 +776,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.0670969420687887</t>
+          <t>0.00890277356312926</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0670969420687887</t>
+          <t>0.00890277356312926</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -724,7 +791,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -736,7 +803,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SUM-WK-P</t>
+          <t>FAL-WE-D</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -746,12 +813,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.00503303448658667</t>
+          <t>0.0440532612444961</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.00503303448658667</t>
+          <t>0.0440532612444961</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -761,7 +828,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -773,7 +840,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SUM-WE-D</t>
+          <t>FAL-WE-N</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -783,12 +850,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.034629309861765</t>
+          <t>0.0252609279587072</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.034629309861765</t>
+          <t>0.0252609279587072</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -798,7 +865,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -810,7 +877,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SUM-WE-N</t>
+          <t>FAL-WE-P</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -820,12 +887,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.0264245893844141</t>
+          <t>0.00320526013661524</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.0264245893844141</t>
+          <t>0.00320526013661524</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -835,7 +902,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -847,7 +914,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SUM-WE-P</t>
+          <t>WIN-WK-D</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -857,12 +924,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.00188551506912717</t>
+          <t>0.0488289891107925</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.00188551506912717</t>
+          <t>0.0488289891107925</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -872,7 +939,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -884,7 +951,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FAL-WK-D</t>
+          <t>WIN-WK-N</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -894,12 +961,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.0947695583420354</t>
+          <t>0.0219260697749487</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.0947695583420354</t>
+          <t>0.0219260697749487</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -909,7 +976,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -921,7 +988,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FAL-WK-N</t>
+          <t>WIN-WK-P</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -931,12 +998,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.0647515972846672</t>
+          <t>0.00425153830224591</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.0647515972846672</t>
+          <t>0.00425153830224591</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -946,7 +1013,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -958,7 +1025,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FAL-WK-P</t>
+          <t>WIN-WE-D</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -968,12 +1035,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.00472552896600047</t>
+          <t>0.0163623982584435</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.00472552896600047</t>
+          <t>0.0163623982584435</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -983,7 +1050,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -995,7 +1062,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FAL-WE-D</t>
+          <t>WIN-WE-N</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1005,12 +1072,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.0364567222977003</t>
+          <t>0.00866504983175246</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.0364567222977003</t>
+          <t>0.00866504983175246</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1020,7 +1087,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1032,7 +1099,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FAL-WE-N</t>
+          <t>WIN-WE-P</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1042,12 +1109,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.0259120177532439</t>
+          <t>0.0017767591766981</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0259120177532439</t>
+          <t>0.0017767591766981</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1057,7 +1124,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1069,7 +1136,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FAL-WE-P</t>
+          <t>SPR-WK-D</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1079,12 +1146,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.00167914213578372</t>
+          <t>0.160732255425675</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.00167914213578372</t>
+          <t>0.160732255425675</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1094,7 +1161,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1106,7 +1173,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>WIN-WK-D</t>
+          <t>SPR-WK-N</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1116,12 +1183,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.133051799607058</t>
+          <t>0.0664866785729822</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.133051799607058</t>
+          <t>0.0664866785729822</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1131,7 +1198,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1143,7 +1210,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>WIN-WK-N</t>
+          <t>SPR-WK-P</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1153,12 +1220,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.0949179206536478</t>
+          <t>0.0145400055500406</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.0949179206536478</t>
+          <t>0.0145400055500406</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1168,7 +1235,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1180,7 +1247,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>WIN-WK-P</t>
+          <t>SPR-WE-D</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1190,12 +1257,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.00770777658922929</t>
+          <t>0.0613165147319116</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.00770777658922929</t>
+          <t>0.0613165147319116</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1205,7 +1272,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1217,7 +1284,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>WIN-WE-D</t>
+          <t>SPR-WE-N</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1227,12 +1294,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.0540971770535414</t>
+          <t>0.0280017524428741</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.0540971770535414</t>
+          <t>0.0280017524428741</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1242,7 +1309,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1254,7 +1321,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WIN-WE-N</t>
+          <t>SPR-WE-P</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1264,12 +1331,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.038959379837449</t>
+          <t>0.00563959857188031</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.038959379837449</t>
+          <t>0.00563959857188031</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1279,47 +1346,10 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>WIN-WE-P</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>COM_FR</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0.00300741467077737</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.00300741467077737</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>DEM</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>AINDC*</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -1328,81 +1358,51 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SPR-WK-D</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>COM_FR</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0.0859982067919798</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.0859982067919798</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>DEM</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>AINDC*</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>~TFM_INS</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SPR-WK-N</t>
+          <t>TimeSlice</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>COM_FR</t>
+          <t>Attribute</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.061568301552097</t>
+          <t>NI</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.061568301552097</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DEM</t>
+          <t>Cset_Set</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>Cset_CN</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>Year</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SPR-WK-P</t>
+          <t>SUM-</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1412,12 +1412,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.00528356576084896</t>
+          <t>0.791186483366308</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.00528356576084896</t>
+          <t>0.791186483366308</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-IRG,ALIVE-IRG,AHORT-IRG</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1439,7 +1439,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SPR-WE-D</t>
+          <t>FAL-</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.0335483938548813</t>
+          <t>0.208121694363726</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.0335483938548813</t>
+          <t>0.208121694363726</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-IRG,ALIVE-IRG,AHORT-IRG</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SPR-WE-N</t>
+          <t>WIN-</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.0249811587481505</t>
+          <t>0.000303430820160661</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.0249811587481505</t>
+          <t>0.000303430820160661</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-IRG,ALIVE-IRG,AHORT-IRG</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1513,7 +1513,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SPR-WE-P</t>
+          <t>SPR-</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1523,12 +1523,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.0021309268320107</t>
+          <t>0.000388391449805647</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.0021309268320107</t>
+          <t>0.000388391449805647</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>AINDC*</t>
+          <t>ADCF-IRG,ALIVE-IRG,AHORT-IRG</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -5200,12 +5200,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0.140947365767566</t>
+          <t>0.0913840203982165</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0.140947365767566</t>
+          <t>0.0913840203982165</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5237,12 +5237,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0.0652719557128457</t>
+          <t>0.0670969420687887</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0.0652719557128457</t>
+          <t>0.0670969420687887</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5274,12 +5274,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.0148057810193078</t>
+          <t>0.00503303448658667</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0.0148057810193078</t>
+          <t>0.00503303448658667</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5311,12 +5311,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0.0581310381820033</t>
+          <t>0.034629309861765</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0.0581310381820033</t>
+          <t>0.034629309861765</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5348,12 +5348,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.024106619492385</t>
+          <t>0.0264245893844141</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.024106619492385</t>
+          <t>0.0264245893844141</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5385,12 +5385,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0.00537331787660849</t>
+          <t>0.00188551506912717</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0.00537331787660849</t>
+          <t>0.00188551506912717</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5422,12 +5422,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0.111283792041318</t>
+          <t>0.0947695583420354</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0.111283792041318</t>
+          <t>0.0947695583420354</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5459,12 +5459,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0.060130297254772</t>
+          <t>0.0647515972846672</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0.060130297254772</t>
+          <t>0.0647515972846672</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5496,12 +5496,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.00890277356312926</t>
+          <t>0.00472552896600047</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0.00890277356312926</t>
+          <t>0.00472552896600047</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5533,12 +5533,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0.0440532612444961</t>
+          <t>0.0364567222977003</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0.0440532612444961</t>
+          <t>0.0364567222977003</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0.0252609279587072</t>
+          <t>0.0259120177532439</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0.0252609279587072</t>
+          <t>0.0259120177532439</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5607,12 +5607,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0.00320526013661524</t>
+          <t>0.00167914213578372</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0.00320526013661524</t>
+          <t>0.00167914213578372</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5644,12 +5644,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0.0488289891107925</t>
+          <t>0.133051799607058</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>0.0488289891107925</t>
+          <t>0.133051799607058</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5681,12 +5681,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0.0219260697749487</t>
+          <t>0.0949179206536478</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0.0219260697749487</t>
+          <t>0.0949179206536478</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5718,12 +5718,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0.00425153830224591</t>
+          <t>0.00770777658922929</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0.00425153830224591</t>
+          <t>0.00770777658922929</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5755,12 +5755,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0.0163623982584435</t>
+          <t>0.0540971770535414</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0.0163623982584435</t>
+          <t>0.0540971770535414</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5792,12 +5792,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0.00866504983175246</t>
+          <t>0.038959379837449</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0.00866504983175246</t>
+          <t>0.038959379837449</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5829,12 +5829,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0.0017767591766981</t>
+          <t>0.00300741467077737</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0.0017767591766981</t>
+          <t>0.00300741467077737</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5866,12 +5866,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0.160732255425675</t>
+          <t>0.0859982067919798</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0.160732255425675</t>
+          <t>0.0859982067919798</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5903,12 +5903,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0.0664866785729822</t>
+          <t>0.061568301552097</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0.0664866785729822</t>
+          <t>0.061568301552097</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5940,12 +5940,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0.0145400055500406</t>
+          <t>0.00528356576084896</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0.0145400055500406</t>
+          <t>0.00528356576084896</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5977,12 +5977,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0.0613165147319116</t>
+          <t>0.0335483938548813</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0.0613165147319116</t>
+          <t>0.0335483938548813</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0.0280017524428741</t>
+          <t>0.0249811587481505</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>0.0280017524428741</t>
+          <t>0.0249811587481505</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6051,12 +6051,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0.00563959857188031</t>
+          <t>0.0021309268320107</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>0.00563959857188031</t>
+          <t>0.0021309268320107</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>ADCF-MoTP-Stat, ADCF-WH, ADCF-PUMP, ADCF-RFGR, ADCF-LIG</t>
+          <t>AINDC*</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
